--- a/Final Project Presentation/11. Functional Requirements.xlsx
+++ b/Final Project Presentation/11. Functional Requirements.xlsx
@@ -9,7 +9,7 @@
   <calcPr/>
   <extLst>
     <ext uri="GoogleSheetsCustomDataVersion1">
-      <go:sheetsCustomData xmlns:go="http://customooxmlschemas.google.com/" r:id="rId5" roundtripDataSignature="AMtx7miBuGwfRRuCrEeG/59G+yKhLg/6SA=="/>
+      <go:sheetsCustomData xmlns:go="http://customooxmlschemas.google.com/" r:id="rId5" roundtripDataSignature="AMtx7mi6qe02eSSY/h0bBg0L6KG9yHd4aw=="/>
     </ext>
   </extLst>
 </workbook>
@@ -452,11 +452,11 @@
       <alignment horizontal="left" shrinkToFit="0" vertical="center" wrapText="1"/>
     </xf>
     <xf borderId="1" fillId="0" fontId="3" numFmtId="0" xfId="0" applyBorder="1" applyFont="1"/>
-    <xf borderId="3" fillId="0" fontId="4" numFmtId="0" xfId="0" applyBorder="1" applyFont="1"/>
-    <xf borderId="4" fillId="0" fontId="4" numFmtId="0" xfId="0" applyBorder="1" applyFont="1"/>
     <xf borderId="1" fillId="4" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1">
       <alignment horizontal="left" shrinkToFit="0" vertical="center" wrapText="1"/>
     </xf>
+    <xf borderId="3" fillId="0" fontId="4" numFmtId="0" xfId="0" applyBorder="1" applyFont="1"/>
+    <xf borderId="4" fillId="0" fontId="4" numFmtId="0" xfId="0" applyBorder="1" applyFont="1"/>
     <xf borderId="1" fillId="0" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
@@ -743,10 +743,10 @@
       <c r="G2" s="7"/>
     </row>
     <row r="3" ht="12.0" customHeight="1">
-      <c r="A3" s="2" t="s">
+      <c r="A3" s="8" t="s">
         <v>7</v>
       </c>
-      <c r="B3" s="8"/>
+      <c r="B3" s="9"/>
       <c r="C3" s="4" t="s">
         <v>13</v>
       </c>
@@ -765,7 +765,7 @@
       <c r="A4" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="B4" s="8"/>
+      <c r="B4" s="9"/>
       <c r="C4" s="4" t="s">
         <v>17</v>
       </c>
@@ -781,10 +781,10 @@
       <c r="G4" s="7"/>
     </row>
     <row r="5" ht="12.0" customHeight="1">
-      <c r="A5" s="2" t="s">
+      <c r="A5" s="8" t="s">
         <v>7</v>
       </c>
-      <c r="B5" s="8"/>
+      <c r="B5" s="9"/>
       <c r="C5" s="4" t="s">
         <v>20</v>
       </c>
@@ -800,10 +800,10 @@
       <c r="G5" s="7"/>
     </row>
     <row r="6" ht="12.0" customHeight="1">
-      <c r="A6" s="2" t="s">
+      <c r="A6" s="8" t="s">
         <v>7</v>
       </c>
-      <c r="B6" s="8"/>
+      <c r="B6" s="9"/>
       <c r="C6" s="4" t="s">
         <v>23</v>
       </c>
@@ -819,10 +819,10 @@
       <c r="G6" s="7"/>
     </row>
     <row r="7" ht="12.0" customHeight="1">
-      <c r="A7" s="2" t="s">
+      <c r="A7" s="8" t="s">
         <v>7</v>
       </c>
-      <c r="B7" s="9"/>
+      <c r="B7" s="10"/>
       <c r="C7" s="4" t="s">
         <v>26</v>
       </c>
@@ -838,7 +838,7 @@
       <c r="G7" s="7"/>
     </row>
     <row r="8" ht="12.0" customHeight="1">
-      <c r="A8" s="10" t="s">
+      <c r="A8" s="8" t="s">
         <v>7</v>
       </c>
       <c r="B8" s="3" t="s">
@@ -859,10 +859,10 @@
       <c r="G8" s="7"/>
     </row>
     <row r="9" ht="12.0" customHeight="1">
-      <c r="A9" s="10" t="s">
+      <c r="A9" s="8" t="s">
         <v>7</v>
       </c>
-      <c r="B9" s="8"/>
+      <c r="B9" s="9"/>
       <c r="C9" s="4" t="s">
         <v>35</v>
       </c>
@@ -878,10 +878,10 @@
       <c r="G9" s="7"/>
     </row>
     <row r="10" ht="12.0" customHeight="1">
-      <c r="A10" s="10" t="s">
+      <c r="A10" s="8" t="s">
         <v>7</v>
       </c>
-      <c r="B10" s="8"/>
+      <c r="B10" s="9"/>
       <c r="C10" s="4" t="s">
         <v>38</v>
       </c>
@@ -897,10 +897,10 @@
       <c r="G10" s="7"/>
     </row>
     <row r="11" ht="12.0" customHeight="1">
-      <c r="A11" s="10" t="s">
+      <c r="A11" s="8" t="s">
         <v>7</v>
       </c>
-      <c r="B11" s="8"/>
+      <c r="B11" s="9"/>
       <c r="C11" s="4" t="s">
         <v>41</v>
       </c>
@@ -919,7 +919,7 @@
       <c r="A12" s="6" t="s">
         <v>45</v>
       </c>
-      <c r="B12" s="8"/>
+      <c r="B12" s="9"/>
       <c r="C12" s="4" t="s">
         <v>46</v>
       </c>
@@ -938,7 +938,7 @@
       <c r="A13" s="6" t="s">
         <v>45</v>
       </c>
-      <c r="B13" s="8"/>
+      <c r="B13" s="9"/>
       <c r="C13" s="4" t="s">
         <v>49</v>
       </c>
@@ -957,7 +957,7 @@
       <c r="A14" s="6" t="s">
         <v>7</v>
       </c>
-      <c r="B14" s="9"/>
+      <c r="B14" s="10"/>
       <c r="C14" s="4" t="s">
         <v>52</v>
       </c>
@@ -997,7 +997,7 @@
       <c r="A16" s="6" t="s">
         <v>45</v>
       </c>
-      <c r="B16" s="8"/>
+      <c r="B16" s="9"/>
       <c r="C16" s="4" t="s">
         <v>60</v>
       </c>
@@ -1016,7 +1016,7 @@
       <c r="A17" s="6" t="s">
         <v>45</v>
       </c>
-      <c r="B17" s="8"/>
+      <c r="B17" s="9"/>
       <c r="C17" s="4" t="s">
         <v>63</v>
       </c>
@@ -1035,7 +1035,7 @@
       <c r="A18" s="6" t="s">
         <v>45</v>
       </c>
-      <c r="B18" s="9"/>
+      <c r="B18" s="10"/>
       <c r="C18" s="4" t="s">
         <v>66</v>
       </c>
@@ -1075,7 +1075,7 @@
       <c r="A20" s="6" t="s">
         <v>45</v>
       </c>
-      <c r="B20" s="9"/>
+      <c r="B20" s="10"/>
       <c r="C20" s="4" t="s">
         <v>75</v>
       </c>
@@ -1115,7 +1115,7 @@
       <c r="A22" s="6" t="s">
         <v>45</v>
       </c>
-      <c r="B22" s="9"/>
+      <c r="B22" s="10"/>
       <c r="C22" s="4" t="s">
         <v>83</v>
       </c>
@@ -1155,7 +1155,7 @@
       <c r="A24" s="6" t="s">
         <v>45</v>
       </c>
-      <c r="B24" s="9"/>
+      <c r="B24" s="10"/>
       <c r="C24" s="4" t="s">
         <v>92</v>
       </c>
